--- a/trunk/meetings/QC.20100927.xlsx
+++ b/trunk/meetings/QC.20100927.xlsx
@@ -138,24 +138,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Cobertura de la Prueba</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -437,11 +420,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="93582464"/>
-        <c:axId val="93584384"/>
+        <c:axId val="92580864"/>
+        <c:axId val="103020032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93582464"/>
+        <c:axId val="92580864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,14 +450,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93584384"/>
+        <c:crossAx val="103020032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93584384"/>
+        <c:axId val="103020032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -501,7 +484,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93582464"/>
+        <c:crossAx val="92580864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -514,7 +497,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -860,7 +843,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
